--- a/biology/Médecine/Anesthésie_locale/Anesthésie_locale.xlsx
+++ b/biology/Médecine/Anesthésie_locale/Anesthésie_locale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une anesthésie locale Écouter consiste à inhiber de façon réversible la propagation des signaux le long des nerfs. 
 Si cette anesthésie est réalisée au niveau de voies nerveuses spécifiques, elle est susceptible de produire des effets tels que l'analgésie (diminution de la sensation de douleur) et la paralysie (perte de puissance du muscle). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1884, Carl Köller utilise déjà la cocaïne pour l’anesthésie par contact en ophtalmologie et en otorhinolaryngologie. La même année, Richard Hall inaugure son emploi en chirurgie dentaire et William Halsted introduit la technique du « bloc nerveux »[1].
-En le greffant sur d’autres alcaloïdes, comme la quinine ou la morphine, Filehne démontre que c’est le noyau benzoyle de la cocaïne qui est responsable de son activité anesthésique[2]. Mais ces esters benzoïques, tous actifs, restent trop irritants pour être utilisables.
-Entrepris sur la base du modèle moléculaire proposé pour la cocaïne par Alfred Einhorn en 1892, les travaux de Georg Merling à Berlin aboutissent à la commercialisation de la bêta-eucaïne par Schering AG. Mais c’est Richard Willstätter, élève d’Einhorn, qui, en 1898, élucide définitivement la structure de la cocaïne[3], qu’il synthétise en 1901. La fonction phénolique liée à une fonction carboxylique estérifiée s’étant révélée essentielle, Paul Ehrlich met alors au point l’orthoforme puis le néoorthoforme, auxquels leur fonction phénolique prête aussi une action antiseptique. En 1902, E. Ritsert, cherchant à sa benzocaïne (Anesthésine) des dérivés plus solubles, parvient à la Nirvanine, immédiatement rendue obsolète par l’arrivée de nouvelles molécules.
-En effet, dès l’année suivante Ernest Fourneau, directeur des recherches chez Poulenc frères, revenant d’Allemagne où il a travaillé avec Willstätter, synthétise la Stovaïne, premier substitut non irritant de la cocaïne en anesthésie locale[4]. Un an plus tard, les laboratoires Hoechst commercialisent la Novocaïne synthétisée par Einhorn et qui sera pendant des décennies le principal des anesthésiques locaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1884, Carl Köller utilise déjà la cocaïne pour l’anesthésie par contact en ophtalmologie et en otorhinolaryngologie. La même année, Richard Hall inaugure son emploi en chirurgie dentaire et William Halsted introduit la technique du « bloc nerveux ».
+En le greffant sur d’autres alcaloïdes, comme la quinine ou la morphine, Filehne démontre que c’est le noyau benzoyle de la cocaïne qui est responsable de son activité anesthésique. Mais ces esters benzoïques, tous actifs, restent trop irritants pour être utilisables.
+Entrepris sur la base du modèle moléculaire proposé pour la cocaïne par Alfred Einhorn en 1892, les travaux de Georg Merling à Berlin aboutissent à la commercialisation de la bêta-eucaïne par Schering AG. Mais c’est Richard Willstätter, élève d’Einhorn, qui, en 1898, élucide définitivement la structure de la cocaïne, qu’il synthétise en 1901. La fonction phénolique liée à une fonction carboxylique estérifiée s’étant révélée essentielle, Paul Ehrlich met alors au point l’orthoforme puis le néoorthoforme, auxquels leur fonction phénolique prête aussi une action antiseptique. En 1902, E. Ritsert, cherchant à sa benzocaïne (Anesthésine) des dérivés plus solubles, parvient à la Nirvanine, immédiatement rendue obsolète par l’arrivée de nouvelles molécules.
+En effet, dès l’année suivante Ernest Fourneau, directeur des recherches chez Poulenc frères, revenant d’Allemagne où il a travaillé avec Willstätter, synthétise la Stovaïne, premier substitut non irritant de la cocaïne en anesthésie locale. Un an plus tard, les laboratoires Hoechst commercialisent la Novocaïne synthétisée par Einhorn et qui sera pendant des décennies le principal des anesthésiques locaux.
 Parallèlement à ces découvertes, des étapes essentielles dans le développement de l’anesthésie locale ont été franchies. Elles ont abouti aux techniques d’anesthésie locorégionale.
-À la suite des travaux de l’Allemand Heinrich Braun[5], puis des Anglais George Oliver et Edward Sharpey-Schafer en 1894[6], et enfin des Américains John Jacob Abel et Albert Cornelius Crawford en 1898[7], l’adrénaline est introduite en anesthésie locale comme vasoconstricteur pour ralentir l’élimination du médicament et compléter ainsi les effets du garrottage, pratiqué par James Leonard Corning dès 1885.
-Mais l’adrénaline reste insuffisamment efficace et le garrottage n’est utilisable que sur les territoires facilement accessibles. S’appuyant sur les observations faites par Edward Feinberg en 1886, et que François-Franck a reprises en 1887 pour établir que « le contact direct d’une solution de cocaïne avec un tronc nerveux détermine l’abolition des propriétés fonctionnelles de ce nerf[8] », Corning et Oberst inaugurent alors la technique de l’anesthésie locorégionale[9] : au lieu d’agir dans la région concernée, ils opèrent sur le nerf correspondant. Enfin, les Français Jean Anasthase Sicard et Fernand Cathelin mettent au point, en 1901, l’anesthésie péridurale en injectant le médicament dans le Liquide cérébrospinal[10],[11].
+À la suite des travaux de l’Allemand Heinrich Braun, puis des Anglais George Oliver et Edward Sharpey-Schafer en 1894, et enfin des Américains John Jacob Abel et Albert Cornelius Crawford en 1898, l’adrénaline est introduite en anesthésie locale comme vasoconstricteur pour ralentir l’élimination du médicament et compléter ainsi les effets du garrottage, pratiqué par James Leonard Corning dès 1885.
+Mais l’adrénaline reste insuffisamment efficace et le garrottage n’est utilisable que sur les territoires facilement accessibles. S’appuyant sur les observations faites par Edward Feinberg en 1886, et que François-Franck a reprises en 1887 pour établir que « le contact direct d’une solution de cocaïne avec un tronc nerveux détermine l’abolition des propriétés fonctionnelles de ce nerf », Corning et Oberst inaugurent alors la technique de l’anesthésie locorégionale : au lieu d’agir dans la région concernée, ils opèrent sur le nerf correspondant. Enfin, les Français Jean Anasthase Sicard et Fernand Cathelin mettent au point, en 1901, l’anesthésie péridurale en injectant le médicament dans le Liquide cérébrospinal,.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Types d'anesthésies locales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différents types d'anesthésies locales :
 anesthésie topique = de surface : l'anesthésique sous forme de gel ou pommade est déposé sur la muqueuse.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Types d'anesthésiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreux anesthésiques locaux. Jusqu'à la mise au point de la Stovaïne et de la Novocaïne, la cocaïne avait été pratiquement seule en usage. En 1946, Löfgren introduisit la lidocaïne. Puis vinrent la scandicaïne, la prilocaïne, l'étidocaïne et la bupivacaïne. Les plus modernes sont la ropivacaïne, la lévobupivacaïne, l'articaïne et la mépivacaïne.
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Anesthésies locales en dentisterie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>péri-apicales, para apicales ou supra-périostée : les plus fréquentes. L'anesthésique est déposé en regard de l'apex de la dent sur la face externe du périoste. Le produit diffuse au travers de la corticale pour rejoindre l'apex. Cette anesthésie se fait à la jonction gencive attachée/gencive libre. Il faut piquer avec une angulation de 45° et faire glisser le biseau en direction apicale jusqu'au-dessus de l'apex. Le point d'infiltration sera toujours distal par rapport à la dent. Utilisé pour toutes les dents maxillaires, et les dents mandibulaires antérieures (jusqu'à la première prémolaire). Au-delà son efficacité est relative. Elle se caractérise par un engourdissement plus ou moins important de la lèvre au niveau du site d’injection. Une para- apicale n'est, si elle est bien faite, pas douloureuse.
 intraseptales : l'anesthésique est déposé à l'intérieur de l'os alvéolaire, dans la crête osseuse. La solution diffuse, par capillarité, dans l'os spongieux et atteint l'extrémité radiculaire. On vise le milieu de la papille pour entrer dans la table osseuse. Il faut tarauder l'os avec une aiguille courte, bipointe car il faut forcer pour atteindre le septum. Cette technique peut être indifféremment utilisée à la mandibule et au maxillaire. Elle pose quelques problématiques :
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Mode d'action des anesthésiques locaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Repose sur le principe de modification des perméabilités membranaires de l'axone.
 Dans la carpule, l'anesthésique est sous forme non ionisée donc inactif mais diffusible. Il ne s'active qu'en milieu acide (intérieur de l'axone).
@@ -677,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anesth%C3%A9sie_locale</t>
+          <t>Anesthésie_locale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -695,7 +717,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La section « Histoire » a pour source principale :
 François Chast, « De Freud à la péridurale : Anesthésie locale », dans Histoire contemporaine des médicaments, La Découverte, 2002</t>
